--- a/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/Variation Order/005- Variation order for dismantling of Ducting.xlsx
+++ b/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/Variation Order/005- Variation order for dismantling of Ducting.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AA961A-8166-408C-AADA-F5349EF634DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68340BE-E2C8-4A51-8BE7-4C7948D678E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>Dismantle  of ducting due to change VCD location.</t>
   </si>
   <si>
-    <t>Supply and re-installation of ducting.</t>
+    <t>Re-installation of ducting.</t>
   </si>
 </sst>
 </file>
@@ -88,8 +88,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -258,15 +258,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -278,25 +278,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -305,16 +305,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -324,7 +324,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -334,28 +334,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -805,7 +805,7 @@
   <dimension ref="A7:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +975,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="18">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="D25" s="19">
         <v>95</v>
@@ -988,11 +988,11 @@
       </c>
       <c r="G25" s="33">
         <f>SUM(C25+D25+F25+E25)*20%</f>
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="H25" s="34">
         <f>SUM(C25+D25+G25+F25+E25)*7.5%</f>
-        <v>49.05</v>
+        <v>8.5499999999999989</v>
       </c>
       <c r="I25" s="35" t="s">
         <v>18</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K25" s="36">
         <f>SUM(C25+D25+G25+H25+F25+E25)*J25</f>
-        <v>752825.94</v>
+        <v>131226.53999999998</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="30" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1020,7 +1020,7 @@
       <c r="J26" s="40"/>
       <c r="K26" s="29">
         <f>SUM(K24:K25)</f>
-        <v>918585.77999999991</v>
+        <v>296986.38</v>
       </c>
       <c r="M26" s="25"/>
       <c r="N26" s="31"/>
